--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>-4.054978023505461</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.280012568372924</v>
+        <v>-6.202360472305714</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.670373149971664</v>
+        <v>-3.617166088239028</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.509563390478398</v>
+        <v>-10.17957244754789</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.805205156247929</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.975850248720327</v>
+        <v>-6.943255239938606</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.721556162861396</v>
+        <v>-3.702718819403173</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.402440361017426</v>
+        <v>-10.04890396101585</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.50095925628886</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.389836683190085</v>
+        <v>-7.310986780440481</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.79500371302306</v>
+        <v>-3.750601752657738</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.936777123964378</v>
+        <v>-9.551882633918416</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.173417702246243</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.964705666629412</v>
+        <v>-7.907206056867626</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.512595120362584</v>
+        <v>-3.458517815407638</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.549132658493559</v>
+        <v>-9.187416950003639</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.819086271389865</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.684778154016113</v>
+        <v>-8.630456398717822</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.48330019121603</v>
+        <v>-3.399258163173762</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.199245993055923</v>
+        <v>-8.855091597231963</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.442139572965684</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.346964800098542</v>
+        <v>-9.261069838453713</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.366492039151698</v>
+        <v>-3.288927945208092</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.710804873009918</v>
+        <v>-8.331239400448892</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.041160379452042</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.994841323081509</v>
+        <v>-9.924806299712953</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.228680713587099</v>
+        <v>-3.156333189970492</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.110703725130443</v>
+        <v>-7.72403452559179</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.613396468101485</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.64338275099838</v>
+        <v>-10.59154950019535</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.111857894502167</v>
+        <v>-3.038200117045226</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.582940322853841</v>
+        <v>-7.188712718698937</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.160632632933072</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.88354543532184</v>
+        <v>-10.80953564937048</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.910577481791278</v>
+        <v>-2.841407812638166</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.286764286856133</v>
+        <v>-6.83721268099522</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.6849128136978758</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.64294020493914</v>
+        <v>-11.56542011205734</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.962733407047527</v>
+        <v>-2.889906760757962</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.623443391180581</v>
+        <v>-6.199803521714317</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1956804477202242</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.23197753027879</v>
+        <v>-12.15070756913006</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.582270892664206</v>
+        <v>-2.499118663871716</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.062776972689641</v>
+        <v>-5.653564562487644</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3010871788242807</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.18955797126022</v>
+        <v>-13.09633927732875</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.354096053178418</v>
+        <v>-2.227128544844637</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.310593488201043</v>
+        <v>-4.919177062994616</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7999509843993641</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.65915685884113</v>
+        <v>-13.57432281168642</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.247227252074524</v>
+        <v>-2.141937600188644</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.814520628435784</v>
+        <v>-4.379073807385921</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.299478564666151</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.49130982865186</v>
+        <v>-14.36506589333438</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.067179796186648</v>
+        <v>-1.971237925430309</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.102563892448162</v>
+        <v>-3.683509911423064</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.803221391398524</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.17930065297786</v>
+        <v>-15.11363151274146</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.707617786159388</v>
+        <v>-1.592388783313069</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.917940326132852</v>
+        <v>-3.492599082276902</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.307220470898361</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.17041479205946</v>
+        <v>-16.0675158645315</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.335671921738232</v>
+        <v>-1.220354916768309</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.554564890749399</v>
+        <v>-3.127038260823938</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.806489008499885</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.84567953151089</v>
+        <v>-16.71837468170329</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.172506206561813</v>
+        <v>-1.057932330635661</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.362177581529429</v>
+        <v>-2.923220453549121</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.282728262894132</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.65583685942736</v>
+        <v>-17.50035666304573</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.697289850090813</v>
+        <v>-0.5750793454385401</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.964608432118772</v>
+        <v>-2.454897596760471</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.716202614147524</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.48917785790675</v>
+        <v>-18.37987922039</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4169297513075754</v>
+        <v>-0.3048834919316186</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.112124436314197</v>
+        <v>-2.564152233215419</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.080715152844774</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.82456861798398</v>
+        <v>-18.65161511106</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01905259446430304</v>
+        <v>0.0855868195082776</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.289761611816684</v>
+        <v>-2.678995004519251</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.354971871067418</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.37766685384494</v>
+        <v>-19.17262679485339</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4488791417749936</v>
+        <v>0.5170367865066549</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.332012409160563</v>
+        <v>-2.67856966092183</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.523708054800733</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.86758934297162</v>
+        <v>-19.67306064874394</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5715589910864903</v>
+        <v>0.6009370333497823</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.298952944726484</v>
+        <v>-2.608197296079456</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.58194956505713</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.10228611761787</v>
+        <v>-19.92330446522698</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6072291851875018</v>
+        <v>0.6449527621726175</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.76587265654433</v>
+        <v>-3.036904530225494</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.53839732746493</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.66685396358861</v>
+        <v>-20.48458200957628</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8560698566997389</v>
+        <v>0.8608121933606463</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.998183595839528</v>
+        <v>-3.231961237194799</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.40859182028265</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.63237179815626</v>
+        <v>-20.43954936732513</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8891928782230876</v>
+        <v>0.8825829409390186</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.309227101719523</v>
+        <v>-3.484263325568812</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.219466864109922</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.87371762214151</v>
+        <v>-20.66239518932598</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7683708515210185</v>
+        <v>0.7383034592894916</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.614574914599563</v>
+        <v>-3.785929716278065</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.996300632603957</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.02404969429228</v>
+        <v>-20.83639005471262</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8354235807007571</v>
+        <v>0.8270927129995339</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.967570988404556</v>
+        <v>-4.121183584163024</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.765879667679922</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.87321894344108</v>
+        <v>-20.67753155458595</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6386410543074303</v>
+        <v>0.6148022568243531</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.205729179912584</v>
+        <v>-4.336730118911571</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.546139218186568</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.5334769672523</v>
+        <v>-20.36019589686823</v>
       </c>
       <c r="F30" t="n">
-        <v>0.665672373274603</v>
+        <v>0.6512889150721394</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.725606614112852</v>
+        <v>-4.833018094978974</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.348008721782892</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.46660513132664</v>
+        <v>-20.25090703736522</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6337569364473823</v>
+        <v>0.6106563790012092</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.841427186790067</v>
+        <v>-4.914468949381777</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.176694833956102</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.2932751708739</v>
+        <v>-20.07911222506869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4109502265014674</v>
+        <v>0.3725764116030519</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.245513382354321</v>
+        <v>-5.281276467585805</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.029440900728401</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.90104481696192</v>
+        <v>-19.69419093642274</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2776954553368335</v>
+        <v>0.2376789341311347</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.357295635359465</v>
+        <v>-5.415773046494635</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.905207583347252</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.58056063882191</v>
+        <v>-19.36243270844763</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1977259700147058</v>
+        <v>0.1410868254614961</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.588271875779995</v>
+        <v>-5.621932688058704</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.794404950139108</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.06359705271432</v>
+        <v>-18.86273709459399</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04623520323647917</v>
+        <v>0.006336018195586282</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.404318103405453</v>
+        <v>-5.454880212423087</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.69370084161339</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.63214219670908</v>
+        <v>-18.391671504953</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01865631550021195</v>
+        <v>-0.007402091100444722</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.526900172579611</v>
+        <v>-5.565616217958711</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.59269962895656</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.24838449169745</v>
+        <v>-18.02768005470431</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1039205952592086</v>
+        <v>0.09035360120351967</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.151884011846033</v>
+        <v>-5.214580635907351</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.487922410753964</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.76655819794238</v>
+        <v>-17.51733129488766</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.07740289142093296</v>
+        <v>-0.05454678431810557</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.04607612523226</v>
+        <v>-5.148970163753352</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.373263959759072</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.15828263058143</v>
+        <v>-16.88435157582818</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1159527105665573</v>
+        <v>-0.1339002547750021</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.024584051045302</v>
+        <v>-5.125864717300312</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.247615032517559</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.72551752073585</v>
+        <v>-16.49125097869389</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1384274751337653</v>
+        <v>-0.1085116421151128</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.987642715158893</v>
+        <v>-5.14708789610959</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.110745595680996</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.04032809734459</v>
+        <v>-15.79831247941856</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2771579339893439</v>
+        <v>-0.2310986002961382</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.128807899434195</v>
+        <v>-5.304064128592495</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.964220089954855</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.40985154980097</v>
+        <v>-15.18498167895722</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3533873290582818</v>
+        <v>-0.2931303194235551</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.233364200290038</v>
+        <v>-5.469263670625551</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.812736408676256</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.94015977108958</v>
+        <v>-14.71982200961146</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4639033292848942</v>
+        <v>-0.4100166955977576</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.914596063560317</v>
+        <v>-5.177595298959139</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.659028120682976</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.33629408792258</v>
+        <v>-14.11341404287367</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4990748446854803</v>
+        <v>-0.4431983852035093</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.06621883352395</v>
+        <v>-5.316472428020726</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.508612187318254</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.80389590713615</v>
+        <v>-13.55307029883594</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6314593726278033</v>
+        <v>-0.5620599201519456</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.174050768980626</v>
+        <v>-5.465132459823008</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.361715601311534</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.90290572063926</v>
+        <v>-12.63820511085075</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7974411557595658</v>
+        <v>-0.7372085911591736</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.251541527821228</v>
+        <v>-5.606317200125778</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.220392400334368</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.56588203226848</v>
+        <v>-12.32866741908576</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.8879757849210967</v>
+        <v>-0.8079916325783683</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.469385895797224</v>
+        <v>-5.870836916660211</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.081352084466104</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.82589661991283</v>
+        <v>-11.58603216500825</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.02378261767026</v>
+        <v>-0.9666252383891576</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.573262624698565</v>
+        <v>-5.98890154348934</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.9422067419519465</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.38970920526041</v>
+        <v>-11.1301811647371</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.115427051390581</v>
+        <v>-1.04405244014049</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.505564546612395</v>
+        <v>-5.914637529180903</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7992262133614966</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.8302650384862</v>
+        <v>-10.58013855816797</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.355179059137223</v>
+        <v>-1.290018375614981</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.761469833047324</v>
+        <v>-6.192220672063733</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6490027394778727</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.39474252876768</v>
+        <v>-10.12395999443673</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.327805509689366</v>
+        <v>-1.263471068327632</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.955900747137664</v>
+        <v>-6.406975187699838</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4907807291188947</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.798234800935392</v>
+        <v>-9.521350786034532</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.435436995864499</v>
+        <v>-1.372427475363699</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.99356076703351</v>
+        <v>-6.438274609661828</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3229356787602787</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.279413392218377</v>
+        <v>-9.022378745197191</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.360908975185247</v>
+        <v>-1.278900773999616</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.145403542306155</v>
+        <v>-6.613824179232143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1460568244523878</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.675772603367255</v>
+        <v>-8.379484120211609</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.442711838082468</v>
+        <v>-1.361686327277087</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.068396795145377</v>
+        <v>-6.519060559130731</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04261343765768039</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.006785348732949</v>
+        <v>-7.744876361865448</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.622138390098247</v>
+        <v>-1.560991581213742</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.223065416387098</v>
+        <v>-6.686450376240164</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2430267534749102</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.626361946404563</v>
+        <v>-7.355496298956874</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.685759036457411</v>
+        <v>-1.599208947892416</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.201172443637054</v>
+        <v>-6.632314403202815</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4554632851080348</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.390232692746305</v>
+        <v>-7.14997711729237</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.619004536696554</v>
+        <v>-1.570036243917534</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.061429960360024</v>
+        <v>-6.494239071267403</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.6772628359376619</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.760445495170922</v>
+        <v>-6.466767741682208</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.693674338574946</v>
+        <v>-1.656390772207853</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.28486735219177</v>
+        <v>-6.698193770734494</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.904332568770866</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.364553275115617</v>
+        <v>-6.120127376804204</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.794681220445409</v>
+        <v>-1.706527537628066</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.215658570983723</v>
+        <v>-6.613173941318843</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.132572192580727</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.240455613812715</v>
+        <v>-5.984428102206113</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.881309533120275</v>
+        <v>-1.813758125240111</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.04711005924683</v>
+        <v>-6.420679073947801</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.354905742819435</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.041013467683786</v>
+        <v>-5.760091133110854</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.001300428654969</v>
+        <v>-1.944480390847683</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.037688943014285</v>
+        <v>-6.378144714205641</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.566728145640947</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.831612414566952</v>
+        <v>-5.561279668867757</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.02560857079727</v>
+        <v>-1.989591257208708</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.189903282808815</v>
+        <v>-6.556261012381086</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.760608744962595</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.474920251570571</v>
+        <v>-5.187128862349623</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.19476331938566</v>
+        <v>-2.149823568264978</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.962852914902418</v>
+        <v>-6.311106652046503</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.932657704131108</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.344251765038535</v>
+        <v>-5.080299173300665</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.335703609345084</v>
+        <v>-2.261615599283855</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.777642667763079</v>
+        <v>-6.159219875712056</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.078505701204624</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.152597806848603</v>
+        <v>-4.877732951783778</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.147031945343969</v>
+        <v>-2.061958336852783</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.888642679669515</v>
+        <v>-6.264221076192789</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.196718721768713</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.210542316235279</v>
+        <v>-4.981091445957227</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.25389096843413</v>
+        <v>-2.192142811704994</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.89261255324545</v>
+        <v>-6.244899721054741</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.286060902935318</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.99271750428675</v>
+        <v>-4.735325959764279</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.311419912237118</v>
+        <v>-2.242890702983571</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.809039869862406</v>
+        <v>-6.153387290519826</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.345385708422042</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.063828109166028</v>
+        <v>-4.810523774384298</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.35236534474753</v>
+        <v>-2.243550718910604</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.69851409162206</v>
+        <v>-6.049994573298309</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.373850043284521</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.220237216852372</v>
+        <v>-4.984479527715998</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.400326502111966</v>
+        <v>-2.318059183562388</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.507324589084484</v>
+        <v>-5.851344446281821</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.368663302298117</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.016707860982702</v>
+        <v>-4.772413965856696</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.296327548038951</v>
+        <v>-2.196557584905818</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.475775827772281</v>
+        <v>-5.807255382355982</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.32812173734584</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.553682152196571</v>
+        <v>-5.303687675063743</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.400086940775487</v>
+        <v>-2.298493378080995</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.324197058870451</v>
+        <v>-5.682898603689134</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.249858882141427</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.573511964048778</v>
+        <v>-5.320144072177778</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.344821607151881</v>
+        <v>-2.233215358393946</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.003649323641172</v>
+        <v>-5.316443093979523</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.131928013126387</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.837278773525707</v>
+        <v>-5.598973911811671</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.502452966554952</v>
+        <v>-2.402722115476755</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.0343816208066</v>
+        <v>-5.348744762349231</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.972517093391058</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.012676783883148</v>
+        <v>-5.803710852377469</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.373847640920755</v>
+        <v>-2.263057856309595</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.574986090556936</v>
+        <v>-4.88158060018804</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.769080989999523</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.453689648313211</v>
+        <v>-6.250111402374873</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.536289783080871</v>
+        <v>-2.412436572121314</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.402961494937667</v>
+        <v>-4.735154844523938</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.523254561450073</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.641979969778706</v>
+        <v>-6.451817158683182</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.591452447560272</v>
+        <v>-2.462636894630797</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.988300377520276</v>
+        <v>-4.275597977047666</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.237541317867705</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.195899558793303</v>
+        <v>-6.977629847219885</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.573514681365561</v>
+        <v>-2.448536998826615</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.568794254297772</v>
+        <v>-3.814134396893297</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9208849802449892</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.895848893915782</v>
+        <v>-7.705700749840859</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.631332076573697</v>
+        <v>-2.498854657500903</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.250661688460749</v>
+        <v>-3.484718003207435</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5823839203249184</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.569167808634175</v>
+        <v>-8.365061549954211</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.607600837241692</v>
+        <v>-2.453269557473788</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.818801044885551</v>
+        <v>-3.035496496247822</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2358996021314748</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.15979406120557</v>
+        <v>-8.961280826381355</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.69302156522043</v>
+        <v>-2.548854530728842</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.42745071220961</v>
+        <v>-2.610553797389309</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1064211534353562</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.851652089963304</v>
+        <v>-9.636306004496301</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.656637576116849</v>
+        <v>-2.50653039828196</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.095785375364967</v>
+        <v>-2.258931534513919</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.432920536192505</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.733179140123</v>
+        <v>-10.5138436250526</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.788000301623987</v>
+        <v>-2.642987468944423</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.996558091994061</v>
+        <v>-2.169394262753238</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.7345068972823053</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.68048288867018</v>
+        <v>-11.49642155814457</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.756290203085177</v>
+        <v>-2.590249751871011</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.707798679413464</v>
+        <v>-1.842324592363495</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.006967985173075</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.65197255418798</v>
+        <v>-12.4600154775723</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.858866456159919</v>
+        <v>-2.699367496133686</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.390252794400471</v>
+        <v>-1.469283590404151</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.247008340327742</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.97834056115454</v>
+        <v>-13.79001112763411</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.795646708363842</v>
+        <v>-2.641408319726409</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.28482136131545</v>
+        <v>-1.387143386033113</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.455601966501117</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.15845392769734</v>
+        <v>-14.96316254839842</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.782485501878107</v>
+        <v>-2.651773014284269</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.357188440959525</v>
+        <v>-1.445875025525362</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.631628606025651</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.62187546416412</v>
+        <v>-16.41981769936139</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.691329968844478</v>
+        <v>-2.566484289490937</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.118732020032615</v>
+        <v>-1.178387681822712</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.775950811187591</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.00584575003667</v>
+        <v>-17.83363048314959</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.728461975998697</v>
+        <v>-2.606021688023679</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.421630440472331</v>
+        <v>-1.480230076779174</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.887154735549769</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.49661150191011</v>
+        <v>-19.32897234545046</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.727093054075961</v>
+        <v>-2.611375150542951</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.199073069876629</v>
+        <v>-1.203067388486898</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.96443059798108</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.27729536099161</v>
+        <v>-21.11556701383406</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.491970935832287</v>
+        <v>-2.398776686935154</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.416790323674085</v>
+        <v>-1.419977956151314</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.004826164643621</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.84479896464815</v>
+        <v>-22.64859334106511</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.492929181178202</v>
+        <v>-2.420904332014811</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.587969121105378</v>
+        <v>-1.604283737020273</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.00488114249676</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.70359448644234</v>
+        <v>-24.52809869594756</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.326238492050737</v>
+        <v>-2.260393347567126</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.884917620188058</v>
+        <v>-1.886633661598346</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.960128392475727</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.52324617475658</v>
+        <v>-26.345704334888</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.261444484043513</v>
+        <v>-2.201534593896338</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.278565786091449</v>
+        <v>-2.282877890148068</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.866420053240093</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.53908881963325</v>
+        <v>-28.3778200391212</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.436837605394087</v>
+        <v>-2.39797488980898</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.486382800983403</v>
+        <v>-2.487688165816869</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.722362789272791</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.69013206040759</v>
+        <v>-30.51543806703899</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.395652611547195</v>
+        <v>-2.380325575019417</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.806348744395519</v>
+        <v>-2.807512328029845</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.52377182507937</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.82778431137345</v>
+        <v>-32.66439859088802</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.514695039749708</v>
+        <v>-2.493569641077768</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.103414579643005</v>
+        <v>-3.118208714422289</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>1.278071741690733</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.96371807642559</v>
+        <v>-34.8267989946142</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.640014952769338</v>
+        <v>-2.628916907181441</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.41437986141313</v>
+        <v>-3.410722884276677</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.9772966643890005</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.03924571713355</v>
+        <v>-36.86702311673618</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.770253206697086</v>
+        <v>-2.730129127340315</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.684785942215329</v>
+        <v>-3.682028542342389</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.6434108512631898</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.45488934305563</v>
+        <v>-39.31668445243825</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.814342270622924</v>
+        <v>-2.797416528849665</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.963747785034629</v>
+        <v>-3.988896836358039</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2535391046884848</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.63758156978295</v>
+        <v>-41.44939147295822</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.937628356785919</v>
+        <v>-2.981306744134937</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.442503782477275</v>
+        <v>-4.514533520647533</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1428325214394532</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.64066146223353</v>
+        <v>-43.46961466798765</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.011941261163026</v>
+        <v>-3.062278475864782</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.805048086693353</v>
+        <v>-4.878334299628408</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.6203629530650598</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.05991073071996</v>
+        <v>-45.88766612979168</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.261290389389422</v>
+        <v>-3.327673324628393</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.986088010975214</v>
+        <v>-5.06583749098833</v>
       </c>
     </row>
   </sheetData>
